--- a/Filtered_By_Region/Region III/Region III_LMS.xlsx
+++ b/Filtered_By_Region/Region III/Region III_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -765,7 +771,6 @@
       <c r="K2" t="n">
         <v>17990219.99595512</v>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -774,17 +779,6 @@
       <c r="N2" t="n">
         <v>0.46</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
@@ -845,20 +839,12 @@
       <c r="AS2" t="n">
         <v>0</v>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>1</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -909,7 +895,6 @@
       <c r="K3" t="n">
         <v>18332263.58</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>Abandoned</t>
@@ -918,17 +903,6 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
@@ -989,20 +963,12 @@
       <c r="AS3" t="n">
         <v>0</v>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>1</v>
       </c>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1019,6 @@
       <c r="K4" t="n">
         <v>17423919.51</v>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -1062,17 +1027,6 @@
       <c r="N4" t="n">
         <v>0.2</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -1133,20 +1087,12 @@
       <c r="AS4" t="n">
         <v>0</v>
       </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="n">
         <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>1</v>
       </c>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
@@ -1197,7 +1143,6 @@
       <c r="K5" t="n">
         <v>17999033.74289692</v>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>Abandoned</t>
@@ -1206,15 +1151,6 @@
       <c r="N5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
@@ -1285,20 +1221,12 @@
       <c r="AS5" t="n">
         <v>0</v>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>1</v>
       </c>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>1</v>
       </c>
@@ -1349,7 +1277,6 @@
       <c r="K6" t="n">
         <v>4992620.94</v>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>Abandoned</t>
@@ -1358,15 +1285,6 @@
       <c r="N6" t="n">
         <v>0.4</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
@@ -1437,20 +1355,12 @@
       <c r="AS6" t="n">
         <v>0</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>1</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>0</v>
       </c>
@@ -1503,7 +1413,6 @@
       <c r="K7" t="n">
         <v>5520405.342278592</v>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -1512,17 +1421,6 @@
       <c r="N7" t="n">
         <v>0.7</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -1583,20 +1481,12 @@
       <c r="AS7" t="n">
         <v>0</v>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
@@ -1648,7 +1538,6 @@
       <c r="K8" t="n">
         <v>8884909.369999999</v>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>Abandoned</t>
@@ -1657,15 +1546,6 @@
       <c r="N8" t="n">
         <v>0.5</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
@@ -1736,20 +1616,12 @@
       <c r="AS8" t="n">
         <v>0</v>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -1800,7 +1672,6 @@
       <c r="K9" t="n">
         <v>18534442.11</v>
       </c>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -1809,17 +1680,6 @@
       <c r="N9" t="n">
         <v>0.3</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
@@ -1880,20 +1740,12 @@
       <c r="AS9" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -1955,10 +1807,10 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>45358</v>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1971,19 +1823,19 @@
           <t>INFRA-NE-01-2022</t>
         </is>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>45121</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="X10" t="inlineStr">
@@ -1991,7 +1843,6 @@
           <t>REBCOR CONST. AND TRADING CORP.</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
@@ -2066,9 +1917,6 @@
       <c r="AW10" t="n">
         <v>1</v>
       </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -2077,7 +1925,6 @@
       <c r="BB10" t="n">
         <v>1</v>
       </c>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2128,7 +1975,6 @@
       <c r="K11" t="n">
         <v>11801006.92</v>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2137,25 +1983,22 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>45219</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="3" t="n">
         <v>45049</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>45106</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="X11" t="inlineStr">
@@ -2163,7 +2006,6 @@
           <t>CAIXIA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -2235,15 +2077,9 @@
       <c r="AV11" t="n">
         <v>1</v>
       </c>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="n">
         <v>1</v>
       </c>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
@@ -2307,10 +2143,10 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>45646</v>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2323,19 +2159,19 @@
           <t>PB-24-05-011</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>45448</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2409,14 +2245,6 @@
       <c r="AT12" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr">
         <is>
           <t>1st</t>
@@ -2485,10 +2313,10 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>45669</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>45727</v>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2501,19 +2329,19 @@
           <t>INFRA-NE-LMS-001-2024</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>45359</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>45371</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>45434</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>45519</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2587,14 +2415,6 @@
       <c r="AT13" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr">
         <is>
           <t>1st</t>
@@ -2663,10 +2483,10 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>45669</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45727</v>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2679,19 +2499,19 @@
           <t>INFRA-NE-LMS-002-2024</t>
         </is>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>45359</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>45371</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>45434</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>45519</v>
       </c>
       <c r="X14" t="inlineStr">
@@ -2765,14 +2585,6 @@
       <c r="AT14" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr">
         <is>
           <t>1st</t>
@@ -2841,10 +2653,10 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>45662</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45624</v>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2857,19 +2669,19 @@
           <t>INFRA-NE-LMS-003-2024</t>
         </is>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="3" t="n">
         <v>45359</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>45371</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>45434</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>45512</v>
       </c>
       <c r="X15" t="inlineStr">
@@ -2943,14 +2755,6 @@
       <c r="AT15" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
       <c r="BC15" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -3019,10 +2823,10 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="3" t="n">
         <v>45662</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3035,19 +2839,19 @@
           <t>I-2024-002</t>
         </is>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>45254</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>45436</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X16" t="inlineStr">
@@ -3121,14 +2925,6 @@
       <c r="AT16" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr">
         <is>
           <t>1st</t>
@@ -3197,10 +2993,10 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="3" t="n">
         <v>45656</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45635</v>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3213,19 +3009,19 @@
           <t>I-2024-003</t>
         </is>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>45254</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>45436</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X17" t="inlineStr">
@@ -3299,14 +3095,6 @@
       <c r="AT17" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr">
         <is>
           <t>1st</t>
@@ -3375,7 +3163,7 @@
       <c r="N18" t="n">
         <v>0.95</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>45778</v>
       </c>
       <c r="P18" t="inlineStr">
@@ -3394,16 +3182,16 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45460</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>45553</v>
       </c>
       <c r="X18" t="inlineStr">
@@ -3474,15 +3262,6 @@
       <c r="AS18" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr">
         <is>
           <t>4th</t>
@@ -3551,10 +3330,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45659</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45703</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3567,19 +3346,19 @@
           <t>Infra-2024-002</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>45449</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -3653,14 +3432,6 @@
       <c r="AT19" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr">
         <is>
           <t>1st</t>
@@ -3729,10 +3500,10 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>45630</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3745,19 +3516,19 @@
           <t>Infra-2024-004</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45450</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -3831,14 +3602,6 @@
       <c r="AT20" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -3846,6 +3609,79 @@
       </c>
       <c r="BD20" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region III/Region III_LMS.xlsx
+++ b/Filtered_By_Region/Region III/Region III_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,1793 +447,1822 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="234" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="66" customWidth="1" min="24" max="24"/>
+    <col width="101" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>157509</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Dianao ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>DILASAG</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE(1) STOREY THREE(3) CLASSROOM SCHOOL BUILDING WITH (COMMON TOILET) WITH PROVISION OF PERIMETER FENCE, SCHOOL FURNITURE, SOLAR PANEL AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>17990219.99595512</v>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>0.46</v>
       </c>
-      <c r="O2" s="4" t="inlineStr"/>
-      <c r="P2" s="4" t="inlineStr"/>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr"/>
-      <c r="U2" s="4" t="inlineStr"/>
-      <c r="V2" s="4" t="inlineStr"/>
-      <c r="W2" s="4" t="inlineStr"/>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr"/>
-      <c r="Z2" s="4" t="n"/>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="5" t="inlineStr"/>
+      <c r="V2" s="5" t="inlineStr"/>
+      <c r="W2" s="5" t="inlineStr"/>
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>104651</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Kanawan Integrated School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>MORONG</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>18332263.58</v>
       </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="4" t="inlineStr"/>
-      <c r="P3" s="4" t="inlineStr"/>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr"/>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="4" t="inlineStr"/>
-      <c r="U3" s="4" t="inlineStr"/>
-      <c r="V3" s="4" t="inlineStr"/>
-      <c r="W3" s="4" t="inlineStr"/>
-      <c r="X3" s="4" t="inlineStr"/>
-      <c r="Y3" s="4" t="inlineStr"/>
-      <c r="Z3" s="4" t="n"/>
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+      <c r="U3" s="5" t="inlineStr"/>
+      <c r="V3" s="5" t="inlineStr"/>
+      <c r="W3" s="5" t="inlineStr"/>
+      <c r="X3" s="5" t="inlineStr"/>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>500119</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Biaan Aeta IS</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>MARIVELES</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>17423919.51</v>
       </c>
-      <c r="L4" s="4" t="inlineStr"/>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O4" s="4" t="inlineStr"/>
-      <c r="P4" s="4" t="inlineStr"/>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr"/>
-      <c r="U4" s="4" t="inlineStr"/>
-      <c r="V4" s="4" t="inlineStr"/>
-      <c r="W4" s="4" t="inlineStr"/>
-      <c r="X4" s="4" t="inlineStr"/>
-      <c r="Y4" s="4" t="inlineStr"/>
-      <c r="Z4" s="4" t="n"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="5" t="inlineStr"/>
+      <c r="V4" s="5" t="inlineStr"/>
+      <c r="W4" s="5" t="inlineStr"/>
+      <c r="X4" s="5" t="inlineStr"/>
+      <c r="Y4" s="5" t="inlineStr"/>
+      <c r="Z4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>158504</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Talamsi I ES (Talamsi PS)</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>DOÑA REMEDIOS TRINIDAD</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>17999033.74289692</v>
       </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+      <c r="U5" s="5" t="inlineStr"/>
+      <c r="V5" s="5" t="inlineStr"/>
+      <c r="W5" s="5" t="inlineStr"/>
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>based on the spot checking report made last November by LMS team (Audit); pls see narrative reports</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Z5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>105274</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>E. Abalos PS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CUYAPO</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER) ANDSCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>4992620.94</v>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr"/>
+      <c r="W6" s="5" t="inlineStr"/>
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>based on the spot checking report made last November by LMS team (Audit); pls see narrative reports</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>306913</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Camias High School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>PORAC</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE
 </t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>5520405.342278592</v>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O7" s="4" t="inlineStr"/>
-      <c r="P7" s="4" t="inlineStr"/>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
-      <c r="W7" s="4" t="inlineStr"/>
-      <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr"/>
-      <c r="Z7" s="4" t="n"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="5" t="inlineStr"/>
+      <c r="W7" s="5" t="inlineStr"/>
+      <c r="X7" s="5" t="inlineStr"/>
+      <c r="Y7" s="5" t="inlineStr"/>
+      <c r="Z7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>106672</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Macaguing Primary School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>SANTA IGNACIA</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM					
 					</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>8884909.369999999</v>
       </c>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="5" t="inlineStr"/>
+      <c r="W8" s="5" t="inlineStr"/>
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>based on the spot checking report made last November by LMS team (Audit); pls see narrative reports</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Z8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>281504</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Belbel Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>BOTOLAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>18534442.11</v>
       </c>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O9" s="4" t="inlineStr"/>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
-      <c r="Z9" s="4" t="n"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr"/>
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>105195</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Ariendo ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), PERIMETER FENCEA, SOLAR PV ENERGY SYSTEM AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>17165672.76</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>16935358.6</v>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="n">
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="7" t="n">
         <v>45358</v>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-PB-01-2023</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-01-2022</t>
         </is>
       </c>
-      <c r="S10" s="5" t="n">
+      <c r="S10" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="7" t="n">
         <v>45103</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="7" t="n">
         <v>45121</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="7" t="n">
         <v>45146</v>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>REBCOR CONST. AND TRADING CORP.</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr"/>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Y10" s="5" t="inlineStr"/>
+      <c r="Z10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>106511</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Gayong-Gayong ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>MAYANTOC</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="G11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>11801006.92</v>
       </c>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="5" t="n">
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="7" t="n">
         <v>45219</v>
       </c>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="5" t="n">
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="7" t="n">
         <v>45049</v>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="7" t="n">
         <v>45070</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="7" t="n">
         <v>45106</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>CAIXIA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr"/>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>158519</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Talamsi II ES</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>DOÑA REMEDIOS TRINIDAD</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>18181818.18</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>17959590.65</v>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="n">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7" t="n">
         <v>45665</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="7" t="n">
         <v>45646</v>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>PB-24-005</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>PB-24-05-011</t>
         </is>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="7" t="n">
         <v>45274</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="7" t="n">
         <v>45287</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>EMICA BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>105296</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Manuel Tiaoqui Elementary School (Formerly Tagtagumbao PS)</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>CUYAPO</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>14568887.4</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>14370537.84</v>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="n">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7" t="n">
         <v>45669</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="7" t="n">
         <v>45727</v>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-063-2024</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-LMS-001-2024</t>
         </is>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="S13" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="7" t="n">
         <v>45371</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>IJKMAE CONSTRUCTION INC.</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Z13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>159020</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Tamale ES (Former Jaime L. Gamilla ES Annex)</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>17167389.49</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>16942768.53</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="n">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7" t="n">
         <v>45669</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="7" t="n">
         <v>45727</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-063-2024</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-LMS-002-2024</t>
         </is>
       </c>
-      <c r="S14" s="5" t="n">
+      <c r="S14" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="7" t="n">
         <v>45371</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>JOYUS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="Z14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>105594</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Singgalat ES</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>PALAYAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>17167389.49</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>16832451.48</v>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="n">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7" t="n">
         <v>45662</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-063-2024</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-LMS-003-2024</t>
         </is>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="7" t="n">
         <v>45371</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="7" t="n">
         <v>45512</v>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>V TRILLANA BUILDERS &amp; TRADING</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="Z15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>502153</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Sebitanan Integrated School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>SASMUAN (SEXMOAN)</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - SIX (6) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET IN EACH CLASSROOM) WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>16961394.45</v>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="n">
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7" t="n">
         <v>45662</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="7" t="n">
         <v>45660</v>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>I-2024-002</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>I-2024-002</t>
         </is>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="T16" s="7" t="n">
         <v>45254</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>V. TRILLANA BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="n">
+      <c r="Y16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="Z16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>300939</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Tagulod High School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - SIX (6) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET IN EACH CLASSROOM) WITH PROVISION OF SCHOOL FURNITURE &amp; DETACHED HANDWASHING FACILITY</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>16964878.39</v>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="n">
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7" t="n">
         <v>45656</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="7" t="n">
         <v>45635</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>I-2024-003</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>I-2024-003</t>
         </is>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="S17" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="7" t="n">
         <v>45254</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>TRACCOR BUILDERS</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="n">
+      <c r="Y17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="Z17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>106552</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Sapang ES</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>MONCADA</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>12791493.32</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>8769144.65</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="7" t="n">
         <v>45778</v>
       </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="Q18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="7" t="n">
         <v>45446</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="7" t="n">
         <v>45460</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="7" t="n">
         <v>45471</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>HOR-VERT ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Y18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Z18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>106945</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Buhawen Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>SAN MARCELINO</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>16950000</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7" t="n">
         <v>45659</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="7" t="n">
         <v>45703</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-001</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-002</t>
         </is>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="7" t="n">
         <v>45278</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="7" t="n">
         <v>45449</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>V. TRILLANA BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Z19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>106915</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Manggahan Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>PALAUIG</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>13378953.8</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="n">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7" t="n">
         <v>45630</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="7" t="n">
         <v>45783</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-001</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-004</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="7" t="n">
         <v>45278</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="7" t="n">
         <v>45450</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>THREE CM Builders</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Z20" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region III/Region III_LMS.xlsx
+++ b/Filtered_By_Region/Region III/Region III_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region III/Region III_LMS.xlsx
+++ b/Filtered_By_Region/Region III/Region III_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,222 +453,230 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="234" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="234" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
     <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="23" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="66" customWidth="1" min="24" max="24"/>
-    <col width="101" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="66" customWidth="1" min="25" max="25"/>
+    <col width="101" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>157509</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Dianao ES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>DILASAG</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE(1) STOREY THREE(3) CLASSROOM SCHOOL BUILDING WITH (COMMON TOILET) WITH PROVISION OF PERIMETER FENCE, SCHOOL FURNITURE, SOLAR PANEL AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>17990219.99595512</v>
       </c>
-      <c r="L2" s="5" t="inlineStr"/>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="O2" s="5" t="n">
         <v>0.46</v>
       </c>
-      <c r="O2" s="5" t="inlineStr"/>
       <c r="P2" s="5" t="inlineStr"/>
       <c r="Q2" s="5" t="inlineStr"/>
       <c r="R2" s="5" t="inlineStr"/>
@@ -679,64 +687,67 @@
       <c r="W2" s="5" t="inlineStr"/>
       <c r="X2" s="5" t="inlineStr"/>
       <c r="Y2" s="5" t="inlineStr"/>
-      <c r="Z2" s="6" t="n"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>104651</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Kanawan Integrated School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>MORONG</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>18332263.58</v>
       </c>
-      <c r="L3" s="5" t="inlineStr"/>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="O3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="5" t="inlineStr"/>
       <c r="P3" s="5" t="inlineStr"/>
       <c r="Q3" s="5" t="inlineStr"/>
       <c r="R3" s="5" t="inlineStr"/>
@@ -747,64 +758,67 @@
       <c r="W3" s="5" t="inlineStr"/>
       <c r="X3" s="5" t="inlineStr"/>
       <c r="Y3" s="5" t="inlineStr"/>
-      <c r="Z3" s="6" t="n"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>500119</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Biaan Aeta IS</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>MARIVELES</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>17423919.51</v>
       </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="O4" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O4" s="5" t="inlineStr"/>
       <c r="P4" s="5" t="inlineStr"/>
       <c r="Q4" s="5" t="inlineStr"/>
       <c r="R4" s="5" t="inlineStr"/>
@@ -815,64 +829,67 @@
       <c r="W4" s="5" t="inlineStr"/>
       <c r="X4" s="5" t="inlineStr"/>
       <c r="Y4" s="5" t="inlineStr"/>
-      <c r="Z4" s="6" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>158504</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Talamsi I ES (Talamsi PS)</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>DOÑA REMEDIOS TRINIDAD</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>17999033.74289692</v>
       </c>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="O5" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O5" s="5" t="inlineStr"/>
       <c r="P5" s="5" t="inlineStr"/>
       <c r="Q5" s="5" t="inlineStr"/>
       <c r="R5" s="5" t="inlineStr"/>
@@ -881,74 +898,77 @@
       <c r="U5" s="5" t="inlineStr"/>
       <c r="V5" s="5" t="inlineStr"/>
       <c r="W5" s="5" t="inlineStr"/>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr"/>
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>based on the spot checking report made last November by LMS team (Audit); pls see narrative reports</t>
         </is>
       </c>
-      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>105274</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>E. Abalos PS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CUYAPO</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER) ANDSCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>4992620.94</v>
       </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O6" s="5" t="inlineStr"/>
       <c r="P6" s="5" t="inlineStr"/>
       <c r="Q6" s="5" t="inlineStr"/>
       <c r="R6" s="5" t="inlineStr"/>
@@ -957,76 +977,79 @@
       <c r="U6" s="5" t="inlineStr"/>
       <c r="V6" s="5" t="inlineStr"/>
       <c r="W6" s="5" t="inlineStr"/>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr"/>
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>based on the spot checking report made last November by LMS team (Audit); pls see narrative reports</t>
         </is>
       </c>
-      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>306913</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Camias High School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>PORAC</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE
 </t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>5520405.342278592</v>
       </c>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="O7" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O7" s="5" t="inlineStr"/>
       <c r="P7" s="5" t="inlineStr"/>
       <c r="Q7" s="5" t="inlineStr"/>
       <c r="R7" s="5" t="inlineStr"/>
@@ -1037,65 +1060,68 @@
       <c r="W7" s="5" t="inlineStr"/>
       <c r="X7" s="5" t="inlineStr"/>
       <c r="Y7" s="5" t="inlineStr"/>
-      <c r="Z7" s="6" t="n"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>106672</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Macaguing Primary School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>SANTA IGNACIA</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM					
 					</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>8884909.369999999</v>
       </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="O8" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O8" s="5" t="inlineStr"/>
       <c r="P8" s="5" t="inlineStr"/>
       <c r="Q8" s="5" t="inlineStr"/>
       <c r="R8" s="5" t="inlineStr"/>
@@ -1104,74 +1130,77 @@
       <c r="U8" s="5" t="inlineStr"/>
       <c r="V8" s="5" t="inlineStr"/>
       <c r="W8" s="5" t="inlineStr"/>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr"/>
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>WERR Corporation International JV Bancal Construction and Supply</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>based on the spot checking report made last November by LMS team (Audit); pls see narrative reports</t>
         </is>
       </c>
-      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>281504</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Belbel Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>BOTOLAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>18534442.11</v>
       </c>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O9" s="5" t="inlineStr"/>
       <c r="P9" s="5" t="inlineStr"/>
       <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
@@ -1182,1091 +1211,1125 @@
       <c r="W9" s="5" t="inlineStr"/>
       <c r="X9" s="5" t="inlineStr"/>
       <c r="Y9" s="5" t="inlineStr"/>
-      <c r="Z9" s="6" t="n"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>309</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>105195</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Ariendo ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), PERIMETER FENCEA, SOLAR PV ENERGY SYSTEM AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>17165672.76</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>16935358.6</v>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="P10" s="7" t="n">
+      <c r="Q10" s="7" t="n">
         <v>45358</v>
       </c>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-PB-01-2023</t>
         </is>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-01-2022</t>
         </is>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="T10" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="U10" s="7" t="n">
         <v>45103</v>
       </c>
-      <c r="U10" s="7" t="n">
+      <c r="V10" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="V10" s="7" t="n">
+      <c r="W10" s="7" t="n">
         <v>45121</v>
       </c>
-      <c r="W10" s="7" t="n">
+      <c r="X10" s="7" t="n">
         <v>45146</v>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>REBCOR CONST. AND TRADING CORP.</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr"/>
-      <c r="Z10" s="6" t="n"/>
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>106511</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Gayong-Gayong ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>MAYANTOC</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>11801006.92</v>
       </c>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="7" t="n">
+      <c r="O11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="7" t="n">
         <v>45219</v>
       </c>
-      <c r="Q11" s="5" t="inlineStr"/>
       <c r="R11" s="5" t="inlineStr"/>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="7" t="n">
         <v>45049</v>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="U11" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="V11" s="7" t="n">
         <v>45070</v>
       </c>
-      <c r="V11" s="7" t="n">
+      <c r="W11" s="7" t="n">
         <v>45106</v>
       </c>
-      <c r="W11" s="7" t="n">
+      <c r="X11" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>CAIXIA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr"/>
-      <c r="Z11" s="6" t="n"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>417</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>158519</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Talamsi II ES</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>DOÑA REMEDIOS TRINIDAD</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>18181818.18</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>17959590.65</v>
       </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>45665</v>
       </c>
-      <c r="P12" s="7" t="n">
+      <c r="Q12" s="7" t="n">
         <v>45646</v>
       </c>
-      <c r="Q12" s="5" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>PB-24-005</t>
         </is>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>PB-24-05-011</t>
         </is>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="T12" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="U12" s="7" t="n">
         <v>45274</v>
       </c>
-      <c r="U12" s="7" t="n">
+      <c r="V12" s="7" t="n">
         <v>45287</v>
       </c>
-      <c r="V12" s="7" t="n">
+      <c r="W12" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="X12" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>EMICA BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="n">
+      <c r="Z12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>418</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>105296</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Manuel Tiaoqui Elementary School (Formerly Tagtagumbao PS)</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>CUYAPO</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>14568887.4</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>14370537.84</v>
       </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <v>45669</v>
       </c>
-      <c r="P13" s="7" t="n">
+      <c r="Q13" s="7" t="n">
         <v>45727</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-063-2024</t>
         </is>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-LMS-001-2024</t>
         </is>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="T13" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="U13" s="7" t="n">
         <v>45371</v>
       </c>
-      <c r="U13" s="7" t="n">
+      <c r="V13" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="V13" s="7" t="n">
+      <c r="W13" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="W13" s="7" t="n">
+      <c r="X13" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>IJKMAE CONSTRUCTION INC.</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="n">
+      <c r="Z13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>419</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>159020</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Tamale ES (Former Jaime L. Gamilla ES Annex)</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>17167389.49</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>16942768.53</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>45669</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="Q14" s="7" t="n">
         <v>45727</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-063-2024</t>
         </is>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-LMS-002-2024</t>
         </is>
       </c>
-      <c r="S14" s="7" t="n">
+      <c r="T14" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="U14" s="7" t="n">
         <v>45371</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="V14" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="V14" s="7" t="n">
+      <c r="W14" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="X14" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>JOYUS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="n">
+      <c r="Z14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>420</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>105594</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Singgalat ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>PALAYAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>17167389.49</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>16832451.48</v>
       </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="n">
         <v>45662</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="Q15" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>DEPED-NE-INFRA-063-2024</t>
         </is>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-LMS-003-2024</t>
         </is>
       </c>
-      <c r="S15" s="7" t="n">
+      <c r="T15" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="U15" s="7" t="n">
         <v>45371</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="V15" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="V15" s="7" t="n">
+      <c r="W15" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="W15" s="7" t="n">
+      <c r="X15" s="7" t="n">
         <v>45512</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>V TRILLANA BUILDERS &amp; TRADING</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="n">
+      <c r="Z15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>421</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>502153</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Sebitanan Integrated School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>SASMUAN (SEXMOAN)</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - SIX (6) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET IN EACH CLASSROOM) WITH PROVISION OF SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>16961394.45</v>
       </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="n">
         <v>45662</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="Q16" s="7" t="n">
         <v>45660</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>I-2024-002</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>I-2024-002</t>
         </is>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="T16" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="U16" s="7" t="n">
         <v>45254</v>
       </c>
-      <c r="U16" s="7" t="n">
+      <c r="V16" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V16" s="7" t="n">
+      <c r="W16" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="W16" s="7" t="n">
+      <c r="X16" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>V. TRILLANA BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="n">
+      <c r="Z16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="6" t="n"/>
+      <c r="AA16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>422</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>300939</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Tagulod High School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - SIX (6) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET IN EACH CLASSROOM) WITH PROVISION OF SCHOOL FURNITURE &amp; DETACHED HANDWASHING FACILITY</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>16964878.39</v>
       </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="n">
         <v>45656</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="Q17" s="7" t="n">
         <v>45635</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>I-2024-003</t>
         </is>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>I-2024-003</t>
         </is>
       </c>
-      <c r="S17" s="7" t="n">
+      <c r="T17" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="T17" s="7" t="n">
+      <c r="U17" s="7" t="n">
         <v>45254</v>
       </c>
-      <c r="U17" s="7" t="n">
+      <c r="V17" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V17" s="7" t="n">
+      <c r="W17" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="W17" s="7" t="n">
+      <c r="X17" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>TRACCOR BUILDERS</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="n">
+      <c r="Z17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="6" t="n"/>
+      <c r="AA17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>423</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>106552</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Sapang ES</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>MONCADA</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>12791493.32</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>8769144.65</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="O18" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="P18" s="7" t="n">
         <v>45778</v>
       </c>
-      <c r="P18" s="5" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="U18" s="7" t="n">
         <v>45446</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>45460</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="W18" s="7" t="n">
         <v>45471</v>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="X18" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>HOR-VERT ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="n">
+      <c r="Z18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z18" s="6" t="n"/>
+      <c r="AA18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>424</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>106945</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Buhawen Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>SAN MARCELINO</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>16950000</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <v>45659</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="Q19" s="7" t="n">
         <v>45703</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-001</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-002</t>
         </is>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="T19" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="U19" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U19" s="7" t="n">
+      <c r="V19" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="V19" s="7" t="n">
+      <c r="W19" s="7" t="n">
         <v>45278</v>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="X19" s="7" t="n">
         <v>45449</v>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>V. TRILLANA BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="n">
+      <c r="Z19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" s="6" t="n"/>
+      <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>425</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region III</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>106915</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Manggahan Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>PALAUIG</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>13378953.8</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="n">
         <v>45630</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="Q20" s="7" t="n">
         <v>45783</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-001</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>Infra-2024-004</t>
         </is>
       </c>
-      <c r="S20" s="7" t="n">
+      <c r="T20" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="U20" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U20" s="7" t="n">
+      <c r="V20" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="W20" s="7" t="n">
         <v>45278</v>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="X20" s="7" t="n">
         <v>45450</v>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>THREE CM Builders</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="n">
+      <c r="Z20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" s="6" t="n"/>
+      <c r="AA20" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
